--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_5.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1903B40-1433-C949-B70F-6A169D94D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170D841-6681-D84F-89FD-0E70DF20D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="882">
   <si>
     <t>record_id</t>
   </si>
@@ -2668,6 +2668,9 @@
   </si>
   <si>
     <t>full_random_check</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -2852,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE101"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="141" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="141" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2865,7 +2868,7 @@
     <col min="14" max="22" width="11.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2956,11 +2959,14 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>761</v>
       </c>
@@ -3033,8 +3039,11 @@
       <c r="Y2" t="s">
         <v>44</v>
       </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9182</v>
       </c>
@@ -3107,8 +3116,11 @@
       <c r="Y3" t="s">
         <v>44</v>
       </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8487</v>
       </c>
@@ -3163,8 +3175,11 @@
       <c r="Y4" t="s">
         <v>44</v>
       </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>868</v>
       </c>
@@ -3232,11 +3247,14 @@
         <v>879</v>
       </c>
       <c r="AD5" s="3"/>
-      <c r="AE5" t="s">
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8736</v>
       </c>
@@ -3309,8 +3327,11 @@
       <c r="Y6" t="s">
         <v>44</v>
       </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7511</v>
       </c>
@@ -3383,8 +3404,11 @@
       <c r="AD7" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9936</v>
       </c>
@@ -3457,8 +3481,11 @@
       <c r="Y8" t="s">
         <v>44</v>
       </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>823</v>
       </c>
@@ -3519,8 +3546,11 @@
       <c r="Y9" t="s">
         <v>44</v>
       </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1347</v>
       </c>
@@ -3596,8 +3626,11 @@
       <c r="Y10" t="s">
         <v>44</v>
       </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5654</v>
       </c>
@@ -3658,8 +3691,11 @@
       <c r="Y11" t="s">
         <v>44</v>
       </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>633</v>
       </c>
@@ -3720,8 +3756,11 @@
       <c r="Y12" t="s">
         <v>44</v>
       </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>670</v>
       </c>
@@ -3791,8 +3830,11 @@
       <c r="Y13" t="s">
         <v>44</v>
       </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3201</v>
       </c>
@@ -3865,8 +3907,11 @@
       <c r="Y14" t="s">
         <v>44</v>
       </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10061</v>
       </c>
@@ -3939,8 +3984,11 @@
       <c r="Y15" t="s">
         <v>44</v>
       </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7405</v>
       </c>
@@ -4013,8 +4061,11 @@
       <c r="Y16" t="s">
         <v>44</v>
       </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8364</v>
       </c>
@@ -4084,8 +4135,11 @@
       <c r="Y17" t="s">
         <v>44</v>
       </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7729</v>
       </c>
@@ -4149,8 +4203,11 @@
       <c r="Y18" t="s">
         <v>44</v>
       </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>911</v>
       </c>
@@ -4208,8 +4265,11 @@
       <c r="Y19" t="s">
         <v>44</v>
       </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7051</v>
       </c>
@@ -4282,8 +4342,11 @@
       <c r="Y20" t="s">
         <v>44</v>
       </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>155</v>
       </c>
@@ -4359,8 +4422,11 @@
       <c r="Y21" t="s">
         <v>44</v>
       </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8603</v>
       </c>
@@ -4436,8 +4502,11 @@
       <c r="Y22" t="s">
         <v>44</v>
       </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10060</v>
       </c>
@@ -4510,8 +4579,11 @@
       <c r="Y23" t="s">
         <v>44</v>
       </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>899</v>
       </c>
@@ -4572,8 +4644,11 @@
       <c r="Y24" t="s">
         <v>44</v>
       </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10360</v>
       </c>
@@ -4646,8 +4721,11 @@
       <c r="Y25" t="s">
         <v>44</v>
       </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>758</v>
       </c>
@@ -4708,8 +4786,11 @@
       <c r="Y26" t="s">
         <v>44</v>
       </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7593</v>
       </c>
@@ -4770,8 +4851,11 @@
       <c r="Y27" t="s">
         <v>44</v>
       </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1381</v>
       </c>
@@ -4841,8 +4925,11 @@
       <c r="Y28" t="s">
         <v>44</v>
       </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>705</v>
       </c>
@@ -4919,11 +5006,14 @@
         <v>879</v>
       </c>
       <c r="AD29" s="3"/>
-      <c r="AE29" t="s">
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10604</v>
       </c>
@@ -4984,8 +5074,11 @@
       <c r="Y30" t="s">
         <v>44</v>
       </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9452</v>
       </c>
@@ -5046,8 +5139,11 @@
       <c r="Y31" t="s">
         <v>44</v>
       </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10415</v>
       </c>
@@ -5126,11 +5222,14 @@
       <c r="AC32" t="s">
         <v>879</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>403</v>
       </c>
@@ -5200,8 +5299,11 @@
       <c r="Y33" t="s">
         <v>44</v>
       </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6939</v>
       </c>
@@ -5277,8 +5379,11 @@
       <c r="Y34" t="s">
         <v>44</v>
       </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8723</v>
       </c>
@@ -5351,8 +5456,11 @@
       <c r="Y35" t="s">
         <v>44</v>
       </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6765</v>
       </c>
@@ -5425,8 +5533,11 @@
       <c r="Y36" t="s">
         <v>44</v>
       </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>931</v>
       </c>
@@ -5490,8 +5601,11 @@
       <c r="Y37" t="s">
         <v>44</v>
       </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9396</v>
       </c>
@@ -5564,8 +5678,11 @@
       <c r="Y38" t="s">
         <v>44</v>
       </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8489</v>
       </c>
@@ -5647,11 +5764,14 @@
       <c r="AC39" t="s">
         <v>879</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7963</v>
       </c>
@@ -5727,8 +5847,11 @@
       <c r="Y40" t="s">
         <v>44</v>
       </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7751</v>
       </c>
@@ -5798,11 +5921,14 @@
       <c r="AC41" t="s">
         <v>879</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3891</v>
       </c>
@@ -5872,8 +5998,11 @@
       <c r="Y42" t="s">
         <v>44</v>
       </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3977</v>
       </c>
@@ -5943,8 +6072,11 @@
       <c r="Y43" t="s">
         <v>44</v>
       </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1132</v>
       </c>
@@ -6014,8 +6146,11 @@
       <c r="Y44" t="s">
         <v>44</v>
       </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>886</v>
       </c>
@@ -6085,8 +6220,11 @@
       <c r="Y45" t="s">
         <v>44</v>
       </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8808</v>
       </c>
@@ -6144,8 +6282,11 @@
       <c r="Y46" t="s">
         <v>44</v>
       </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1114</v>
       </c>
@@ -6206,8 +6347,11 @@
       <c r="Y47" t="s">
         <v>44</v>
       </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1926</v>
       </c>
@@ -6283,11 +6427,14 @@
       <c r="AC48" t="s">
         <v>879</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10550</v>
       </c>
@@ -6354,8 +6501,11 @@
       <c r="Y49" t="s">
         <v>44</v>
       </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6665</v>
       </c>
@@ -6434,11 +6584,14 @@
       <c r="AC50" t="s">
         <v>879</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8873</v>
       </c>
@@ -6496,8 +6649,11 @@
       <c r="Y51" t="s">
         <v>44</v>
       </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10681</v>
       </c>
@@ -6576,11 +6732,14 @@
       <c r="AC52" t="s">
         <v>879</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1326</v>
       </c>
@@ -6650,8 +6809,11 @@
       <c r="Y53" t="s">
         <v>44</v>
       </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9585</v>
       </c>
@@ -6712,8 +6874,11 @@
       <c r="Y54" t="s">
         <v>44</v>
       </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6721</v>
       </c>
@@ -6774,8 +6939,11 @@
       <c r="Y55" t="s">
         <v>44</v>
       </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6373</v>
       </c>
@@ -6833,8 +7001,11 @@
       <c r="Y56" t="s">
         <v>44</v>
       </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10701</v>
       </c>
@@ -6907,8 +7078,11 @@
       <c r="Y57" t="s">
         <v>44</v>
       </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1093</v>
       </c>
@@ -6975,11 +7149,14 @@
       <c r="AC58" t="s">
         <v>879</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8042</v>
       </c>
@@ -7052,8 +7229,11 @@
       <c r="Y59" t="s">
         <v>44</v>
       </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1684</v>
       </c>
@@ -7132,11 +7312,14 @@
       <c r="AC60" t="s">
         <v>879</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9154</v>
       </c>
@@ -7200,8 +7383,11 @@
       <c r="Y61" t="s">
         <v>44</v>
       </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6895</v>
       </c>
@@ -7274,8 +7460,11 @@
       <c r="Y62" t="s">
         <v>44</v>
       </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8542</v>
       </c>
@@ -7336,8 +7525,11 @@
       <c r="Y63" t="s">
         <v>44</v>
       </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3342</v>
       </c>
@@ -7398,8 +7590,11 @@
       <c r="Y64" t="s">
         <v>44</v>
       </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7761</v>
       </c>
@@ -7469,11 +7664,14 @@
       <c r="AC65" t="s">
         <v>879</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AF65" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4128</v>
       </c>
@@ -7537,8 +7735,11 @@
       <c r="Y66" t="s">
         <v>44</v>
       </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7045</v>
       </c>
@@ -7611,8 +7812,11 @@
       <c r="Y67" t="s">
         <v>44</v>
       </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3963</v>
       </c>
@@ -7685,8 +7889,11 @@
       <c r="Y68" t="s">
         <v>44</v>
       </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>515</v>
       </c>
@@ -7744,8 +7951,11 @@
       <c r="Y69" t="s">
         <v>44</v>
       </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1016</v>
       </c>
@@ -7815,8 +8025,11 @@
       <c r="Y70" t="s">
         <v>44</v>
       </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>9267</v>
       </c>
@@ -7880,8 +8093,11 @@
       <c r="Y71" t="s">
         <v>44</v>
       </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>736</v>
       </c>
@@ -7963,11 +8179,14 @@
       <c r="AC72" t="s">
         <v>879</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>881</v>
       </c>
@@ -8028,8 +8247,11 @@
       <c r="Y73" t="s">
         <v>44</v>
       </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10557</v>
       </c>
@@ -8111,11 +8333,14 @@
       <c r="AC74" t="s">
         <v>879</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AF74" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6741</v>
       </c>
@@ -8173,8 +8398,11 @@
       <c r="Y75" t="s">
         <v>44</v>
       </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9861</v>
       </c>
@@ -8238,8 +8466,11 @@
       <c r="Y76" t="s">
         <v>44</v>
       </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7802</v>
       </c>
@@ -8306,8 +8537,11 @@
       <c r="Y77" t="s">
         <v>44</v>
       </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7162</v>
       </c>
@@ -8374,8 +8608,11 @@
       <c r="Y78" t="s">
         <v>44</v>
       </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4900</v>
       </c>
@@ -8436,8 +8673,11 @@
       <c r="Y79" t="s">
         <v>44</v>
       </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1150</v>
       </c>
@@ -8498,8 +8738,11 @@
       <c r="Y80" t="s">
         <v>44</v>
       </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9202</v>
       </c>
@@ -8563,8 +8806,11 @@
       <c r="Y81" t="s">
         <v>44</v>
       </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2286</v>
       </c>
@@ -8634,8 +8880,11 @@
       <c r="Y82" t="s">
         <v>44</v>
       </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8544</v>
       </c>
@@ -8708,8 +8957,11 @@
       <c r="Y83" t="s">
         <v>44</v>
       </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6024</v>
       </c>
@@ -8782,8 +9034,11 @@
       <c r="Y84" t="s">
         <v>44</v>
       </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9890</v>
       </c>
@@ -8847,8 +9102,11 @@
       <c r="Y85" t="s">
         <v>44</v>
       </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>315</v>
       </c>
@@ -8918,8 +9176,11 @@
       <c r="Y86" t="s">
         <v>44</v>
       </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2452</v>
       </c>
@@ -8995,8 +9256,11 @@
       <c r="Y87" t="s">
         <v>44</v>
       </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>784</v>
       </c>
@@ -9057,8 +9321,11 @@
       <c r="Y88" t="s">
         <v>44</v>
       </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10679</v>
       </c>
@@ -9134,8 +9401,11 @@
       <c r="Y89" t="s">
         <v>44</v>
       </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10289</v>
       </c>
@@ -9214,8 +9484,11 @@
       <c r="AC90" t="s">
         <v>789</v>
       </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1361</v>
       </c>
@@ -9285,8 +9558,11 @@
       <c r="Y91" t="s">
         <v>44</v>
       </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10156</v>
       </c>
@@ -9347,8 +9623,11 @@
       <c r="Y92" t="s">
         <v>44</v>
       </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3822</v>
       </c>
@@ -9409,8 +9688,11 @@
       <c r="Y93" t="s">
         <v>44</v>
       </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3111</v>
       </c>
@@ -9483,8 +9765,11 @@
       <c r="Y94" t="s">
         <v>44</v>
       </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10496</v>
       </c>
@@ -9548,8 +9833,11 @@
       <c r="Y95" t="s">
         <v>44</v>
       </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4228</v>
       </c>
@@ -9607,8 +9895,11 @@
       <c r="Y96" t="s">
         <v>44</v>
       </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>646</v>
       </c>
@@ -9678,8 +9969,11 @@
       <c r="Y97" t="s">
         <v>44</v>
       </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10127</v>
       </c>
@@ -9758,11 +10052,14 @@
       <c r="AC98" t="s">
         <v>879</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AE98">
+        <v>1</v>
+      </c>
+      <c r="AF98" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6619</v>
       </c>
@@ -9835,8 +10132,11 @@
       <c r="Y99" t="s">
         <v>44</v>
       </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10272</v>
       </c>
@@ -9894,8 +10194,11 @@
       <c r="Y100" t="s">
         <v>44</v>
       </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>615</v>
       </c>
@@ -9967,6 +10270,9 @@
       </c>
       <c r="Y101" t="s">
         <v>44</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
